--- a/docs/downloads/governance-maturity-dashboard.xlsx
+++ b/docs/downloads/governance-maturity-dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="All Controls" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary Dashboard" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="All Controls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary Dashboard" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -76,11 +76,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -93,6 +121,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -458,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FSI Agent Governance Framework - All 48 Controls</t>
+          <t>FSI Agent Governance Framework - All 58 Controls</t>
         </is>
       </c>
     </row>
@@ -878,19 +908,29 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Pillar 2 - Management</t>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Network Isolation and Private Connectivity</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Managed Environments</t>
+          <t>Adversarial Input Logging</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -904,12 +944,12 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Environment Groups and Tier Classification</t>
+          <t>Information Barriers for AI Agents</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -923,31 +963,23 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Change Management and Release Planning</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
+          <t>Pillar 2 - Management</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Managed Environments</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -961,12 +993,12 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Testing, Validation, and Quality Assurance</t>
+          <t>Environment Groups and Tier Classification</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -980,12 +1012,12 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Model Risk Management (OCC 2011-12 / SR 11-7)</t>
+          <t>Change Management and Release Planning</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -999,12 +1031,12 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Vendor and Third-Party Risk Management</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1018,12 +1050,12 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Access Control and Segregation of Duties</t>
+          <t>Testing, Validation, and Quality Assurance</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -1037,12 +1069,12 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Agent Performance Monitoring and Optimization</t>
+          <t>Model Risk Management (OCC 2011-12 / SR 11-7)</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1056,12 +1088,12 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Patch Management and System Updates</t>
+          <t>Vendor and Third-Party Risk Management</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -1075,12 +1107,12 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Bias Testing and Fairness Assessment</t>
+          <t>Access Control and Segregation of Duties</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1094,12 +1126,12 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Supervision and Oversight (FINRA Rule 3110)</t>
+          <t>Agent Performance Monitoring and Optimization</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
@@ -1113,12 +1145,12 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Documentation and Record Keeping</t>
+          <t>Patch Management and System Updates</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1132,12 +1164,12 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Training and Awareness Program</t>
+          <t>Bias Testing and Fairness Assessment</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
@@ -1151,12 +1183,12 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Environment Routing and Auto-Provisioning</t>
+          <t>Supervision and Oversight (FINRA Rule 3110)</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1170,19 +1202,29 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Pillar 3 - Reporting</t>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Documentation and Record Keeping</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Agent Inventory and Metadata Management</t>
+          <t>Training and Awareness Program</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -1196,12 +1238,12 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Usage Analytics and Activity Monitoring</t>
+          <t>Environment Routing and Auto-Provisioning</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
@@ -1215,12 +1257,12 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Compliance and Regulatory Reporting</t>
+          <t>RAG Source Integrity Validation</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1234,12 +1276,12 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Incident Reporting and Root Cause Analysis</t>
+          <t>Multi-Agent Orchestration Limits</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -1253,12 +1295,12 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Cost Allocation and Budget Tracking</t>
+          <t>Automated Conflict of Interest Testing</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1272,12 +1314,12 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Orphaned Agent Detection and Remediation</t>
+          <t>Customer AI Disclosure and Transparency</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -1291,31 +1333,23 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>PPAC Security Posture Assessment</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr"/>
-      <c r="E47" s="4" t="inlineStr"/>
+          <t>Pillar 3 - Reporting</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n"/>
+      <c r="C47" s="8" t="n"/>
+      <c r="D47" s="8" t="n"/>
+      <c r="E47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Copilot Command Center</t>
+          <t>Agent Inventory and Metadata Management</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -1329,12 +1363,12 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Microsoft Sentinel Integration</t>
+          <t>Usage Analytics and Activity Monitoring</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -1348,19 +1382,29 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Pillar 4 - SharePoint</t>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Compliance and Regulatory Reporting</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SharePoint Information Access Governance (IAG)</t>
+          <t>Incident Reporting and Root Cause Analysis</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1374,12 +1418,12 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Site Access Reviews and Certification</t>
+          <t>Cost Allocation and Budget Tracking</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
@@ -1393,12 +1437,12 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Site and Document Retention Management</t>
+          <t>Orphaned Agent Detection and Remediation</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1412,12 +1456,12 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Guest and External User Access Controls</t>
+          <t>PPAC Security Posture Assessment</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
@@ -1431,12 +1475,12 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SharePoint Security and Compliance Monitoring</t>
+          <t>Copilot Command Center</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1447,13 +1491,173 @@
       <c r="D55" s="4" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Microsoft Sentinel Integration</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hallucination Feedback Loop</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pillar 4 - SharePoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SharePoint Information Access Governance (IAG)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Site Access Reviews and Certification</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Site and Document Retention Management</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Guest and External User Access Controls</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SharePoint Security and Compliance Monitoring</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Grounding Scope Governance</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Copilot Data Governance</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="C4:C56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
@@ -1520,7 +1724,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -1538,7 +1742,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -1556,7 +1760,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
@@ -1574,7 +1778,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
@@ -1592,7 +1796,7 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <f>SUM(C4:C7)</f>

--- a/docs/downloads/governance-maturity-dashboard.xlsx
+++ b/docs/downloads/governance-maturity-dashboard.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,44 +961,32 @@
       <c r="E26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>Pillar 2 - Management</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n"/>
-      <c r="D27" s="8" t="n"/>
-      <c r="E27" s="9" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Managed Environments</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
+          <t>Pillar 2 - Management</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Environment Groups and Tier Classification</t>
+          <t>Managed Environments</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1012,12 +1000,12 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Change Management and Release Planning</t>
+          <t>Environment Groups and Tier Classification</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -1031,12 +1019,12 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Change Management and Release Planning</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1050,12 +1038,12 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Testing, Validation, and Quality Assurance</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -1069,12 +1057,12 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Model Risk Management (OCC 2011-12 / SR 11-7)</t>
+          <t>Testing, Validation, and Quality Assurance</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1088,12 +1076,12 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Vendor and Third-Party Risk Management</t>
+          <t>Model Risk Management (OCC 2011-12 / SR 11-7)</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -1107,12 +1095,12 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Access Control and Segregation of Duties</t>
+          <t>Vendor and Third-Party Risk Management</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1126,12 +1114,12 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Agent Performance Monitoring and Optimization</t>
+          <t>Access Control and Segregation of Duties</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
@@ -1145,12 +1133,12 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Patch Management and System Updates</t>
+          <t>Agent Performance Monitoring and Optimization</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1164,12 +1152,12 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Bias Testing and Fairness Assessment</t>
+          <t>Patch Management and System Updates</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
@@ -1183,12 +1171,12 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Supervision and Oversight (FINRA Rule 3110)</t>
+          <t>Bias Testing and Fairness Assessment</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1200,50 +1188,50 @@
       <c r="E39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Supervision and Oversight (FINRA Rule 3110)</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Documentation and Record Keeping</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Training and Awareness Program</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Environment Routing and Auto-Provisioning</t>
+          <t>Training and Awareness Program</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
@@ -1257,12 +1245,12 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>RAG Source Integrity Validation</t>
+          <t>Environment Routing and Auto-Provisioning</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1276,12 +1264,12 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Multi-Agent Orchestration Limits</t>
+          <t>RAG Source Integrity Validation</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -1295,12 +1283,12 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Automated Conflict of Interest Testing</t>
+          <t>Multi-Agent Orchestration Limits</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1314,12 +1302,12 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Customer AI Disclosure and Transparency</t>
+          <t>Automated Conflict of Interest Testing</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -1333,7 +1321,7 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Pillar 3 - Reporting</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="B47" s="8" t="n"/>
@@ -1342,69 +1330,61 @@
       <c r="E47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Agent Inventory and Metadata Management</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr"/>
-      <c r="E48" s="4" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Adversarial Testing and Red Team Framework</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Usage Analytics and Activity Monitoring</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
+          <t>Pillar 3 - Reporting</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n"/>
+      <c r="C49" s="8" t="n"/>
+      <c r="D49" s="8" t="n"/>
+      <c r="E49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Compliance and Regulatory Reporting</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Agent Inventory and Metadata Management</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr"/>
+      <c r="E50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Incident Reporting and Root Cause Analysis</t>
+          <t>Usage Analytics and Activity Monitoring</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1416,33 +1396,31 @@
       <c r="E51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Cost Allocation and Budget Tracking</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr"/>
-      <c r="E52" s="4" t="inlineStr"/>
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Compliance and Regulatory Reporting</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Orphaned Agent Detection and Remediation</t>
+          <t>Incident Reporting and Root Cause Analysis</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1456,12 +1434,12 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>PPAC Security Posture Assessment</t>
+          <t>Cost Allocation and Budget Tracking</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
@@ -1475,12 +1453,12 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Copilot Command Center</t>
+          <t>Orphaned Agent Detection and Remediation</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1492,55 +1470,59 @@
       <c r="E55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Microsoft Sentinel Integration</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>PPAC Security Posture Assessment</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr"/>
+      <c r="E56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Hallucination Feedback Loop</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Copilot Command Center</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr"/>
+      <c r="E57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pillar 4 - SharePoint</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SharePoint Information Access Governance (IAG)</t>
+          <t>Hallucination Feedback Loop</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1552,29 +1534,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Site Access Reviews and Certification</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Not Started</t>
+          <t>Pillar 4 - SharePoint</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Site and Document Retention Management</t>
+          <t>SharePoint Information Access Governance (IAG)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1586,12 +1558,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Guest and External User Access Controls</t>
+          <t>Site Access Reviews and Certification</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1603,12 +1575,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SharePoint Security and Compliance Monitoring</t>
+          <t>Site and Document Retention Management</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1620,12 +1592,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Grounding Scope Governance</t>
+          <t>Guest and External User Access Controls</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1637,15 +1609,49 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SharePoint Security and Compliance Monitoring</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Grounding Scope Governance</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Microsoft 365 Copilot Data Governance</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
@@ -1695,6 +1701,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -1795,8 +1802,10 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>58</v>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C8" s="5">
         <f>SUM(C4:C7)</f>
@@ -1804,6 +1813,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr"/>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -1832,10 +1842,12 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>FSI Agent Governance Framework v1.0 Beta</t>
+          <t>FSI Agent Governance Framework v1.1</t>
         </is>
       </c>
     </row>

--- a/docs/downloads/governance-maturity-dashboard.xlsx
+++ b/docs/downloads/governance-maturity-dashboard.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,11 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FSI Agent Governance Framework - All 58 Controls</t>
-        </is>
-      </c>
-    </row>
+          <t>FSI Agent Governance Framework - All 61 Controls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -964,6 +965,16 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>1.23</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Step-Up Authentication for Agent Operations</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
@@ -1324,10 +1335,16 @@
           <t>2.19</t>
         </is>
       </c>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
-      <c r="D47" s="8" t="n"/>
-      <c r="E47" s="9" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Customer AI Disclosure and Transparency</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1347,44 +1364,42 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>Pillar 3 - Reporting</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="D49" s="8" t="n"/>
-      <c r="E49" s="9" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AI Marketing Claims and Substantiation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Agent Inventory and Metadata Management</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr"/>
-      <c r="E50" s="4" t="inlineStr"/>
+          <t>Pillar 3 - Reporting</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="n"/>
+      <c r="C50" s="8" t="n"/>
+      <c r="D50" s="8" t="n"/>
+      <c r="E50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Usage Analytics and Activity Monitoring</t>
+          <t>Agent Inventory and Metadata Management</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1396,50 +1411,50 @@
       <c r="E51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Usage Analytics and Activity Monitoring</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Compliance and Regulatory Reporting</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Incident Reporting and Root Cause Analysis</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr"/>
-      <c r="E53" s="4" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Cost Allocation and Budget Tracking</t>
+          <t>Incident Reporting and Root Cause Analysis</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
@@ -1453,12 +1468,12 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Orphaned Agent Detection and Remediation</t>
+          <t>Cost Allocation and Budget Tracking</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1472,12 +1487,12 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PPAC Security Posture Assessment</t>
+          <t>Orphaned Agent Detection and Remediation</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -1491,12 +1506,12 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Copilot Command Center</t>
+          <t>PPAC Security Posture Assessment</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -1508,21 +1523,33 @@
       <c r="E57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Copilot Command Center</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr"/>
+      <c r="E58" s="4" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hallucination Feedback Loop</t>
+          <t>Agent Activity Dashboard</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1534,36 +1561,36 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pillar 4 - SharePoint</t>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hallucination Feedback Loop</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>SharePoint Information Access Governance (IAG)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Not Started</t>
+          <t>Pillar 4 - SharePoint</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Site Access Reviews and Certification</t>
+          <t>SharePoint Information Access Governance (IAG)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1575,12 +1602,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Site and Document Retention Management</t>
+          <t>Site Access Reviews and Certification</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1592,12 +1619,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Guest and External User Access Controls</t>
+          <t>Site and Document Retention Management</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1609,12 +1636,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SharePoint Security and Compliance Monitoring</t>
+          <t>Guest and External User Access Controls</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1626,12 +1653,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Grounding Scope Governance</t>
+          <t>SharePoint Security and Compliance Monitoring</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1643,27 +1670,41 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Grounding Scope Governance</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Microsoft 365 Copilot Data Governance</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="C4:C56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
@@ -1701,7 +1742,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -1731,7 +1771,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -1749,7 +1789,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -1802,10 +1842,8 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="B8" s="5" t="n">
+        <v>61</v>
       </c>
       <c r="C8" s="5">
         <f>SUM(C4:C7)</f>
@@ -1813,7 +1851,6 @@
       </c>
       <c r="D8" s="4" t="inlineStr"/>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -1842,8 +1879,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
